--- a/results/2017-03-27 - 100 short tests/Stats 2017-03-27.xlsx
+++ b/results/2017-03-27 - 100 short tests/Stats 2017-03-27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="4305" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="avgDelay" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>Strategy</t>
   </si>
@@ -110,15 +110,27 @@
   <si>
     <t>Perctg</t>
   </si>
+  <si>
+    <t>Dst</t>
+  </si>
+  <si>
+    <t>Ost</t>
+  </si>
+  <si>
+    <t>UAVs</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +145,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,11 +161,39 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -155,10 +202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -166,6 +213,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,11 +447,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305486904"/>
-        <c:axId val="305484944"/>
+        <c:axId val="390335752"/>
+        <c:axId val="390329088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305486904"/>
+        <c:axId val="390335752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,12 +508,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305484944"/>
+        <c:crossAx val="390329088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305484944"/>
+        <c:axId val="390329088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -499,7 +570,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305486904"/>
+        <c:crossAx val="390335752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -513,7 +584,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -624,7 +694,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -694,7 +776,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -748,11 +842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="338536128"/>
-        <c:axId val="338533776"/>
+        <c:axId val="386765832"/>
+        <c:axId val="382589576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="338536128"/>
+        <c:axId val="386765832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,12 +903,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338533776"/>
+        <c:crossAx val="382589576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338533776"/>
+        <c:axId val="382589576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +965,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338536128"/>
+        <c:crossAx val="386765832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2772,7 +2866,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3330,12 +3424,401 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>3.71378491803</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.1267559580650073</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.12675595806500728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>7.2945114754100002</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.1031904463677307</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.10319044636773067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>14.4259848387</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.0951837233482524</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9.5183723348252425E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>28.497426774200001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.0884095760929318</v>
+      </c>
+      <c r="G5" s="6">
+        <v>8.8409576092931763E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3.2959975862099999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>6.6121960169499996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>13.172205294099999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>26.182631428600001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>3.65204683333</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="P10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>7.25732638655</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4</v>
+      </c>
+      <c r="L11" s="8">
+        <v>8</v>
+      </c>
+      <c r="M11" s="8">
+        <v>16</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="P11" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>4</v>
+      </c>
+      <c r="R11" s="8">
+        <v>8</v>
+      </c>
+      <c r="S11" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>14.4061638843</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3.71378491803</v>
+      </c>
+      <c r="K12" s="7">
+        <v>7.2945114754100002</v>
+      </c>
+      <c r="L12" s="7">
+        <v>14.4259848387</v>
+      </c>
+      <c r="M12" s="7">
+        <v>28.497426774200001</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>28.4214927049</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3.2959975862099999</v>
+      </c>
+      <c r="K13" s="7">
+        <v>6.6121960169499996</v>
+      </c>
+      <c r="L13" s="7">
+        <v>13.172205294099999</v>
+      </c>
+      <c r="M13" s="7">
+        <v>26.182631428600001</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="P13" s="12">
+        <v>1.1267559580650073</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1.1031904463677307</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1.0951837233482524</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1.0884095760929318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16" s="8">
+        <v>2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>4</v>
+      </c>
+      <c r="L16" s="8">
+        <v>8</v>
+      </c>
+      <c r="M16" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="13">
+        <v>1.1267559580650073</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1.1031904463677307</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1.0951837233482524</v>
+      </c>
+      <c r="M18" s="13">
+        <v>1.0884095760929318</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="14">
+        <f>J18-J17</f>
+        <v>0.12675595806500728</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" ref="K19:M19" si="0">K18-K17</f>
+        <v>0.10319044636773067</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="0"/>
+        <v>9.5183723348252425E-2</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="0"/>
+        <v>8.8409576092931763E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="J15:M15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>